--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/079_ClassToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/079_ClassToWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="Rc21f98f2a9454707"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="R66d8fc441d534d48"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="Rf4f2e7bddc254fff"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="Rad1a114286ad4a5b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -253,7 +253,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbce695ab275f41c2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9a6c4911a7ac4da9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -387,6 +387,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R61fcdd97891b4760"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rddcc581c15ea4e3c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/079_ClassToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/079_ClassToWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="Rf4f2e7bddc254fff"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="Rad1a114286ad4a5b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="R531f70c79bf34477"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="Rbbaab0d692e84efe"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -253,7 +253,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9a6c4911a7ac4da9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9f49ef2fabfc4e2d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -387,6 +387,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rddcc581c15ea4e3c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1f37e61f0a634714"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/079_ClassToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/079_ClassToWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="R531f70c79bf34477"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="Rbbaab0d692e84efe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="R31dcd6e65a0d4a65"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="Rbfd4999263c249b4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -253,7 +253,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9f49ef2fabfc4e2d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R320fac16a58a4da9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -387,6 +387,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1f37e61f0a634714"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R826a633a6f2e419a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/079_ClassToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/079_ClassToWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="R31dcd6e65a0d4a65"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="Rbfd4999263c249b4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="R9245ddbb45d4478b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="Rd65ab3b0903c4b74"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -253,7 +253,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R320fac16a58a4da9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Reb3c8fe0103747a8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -387,6 +387,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R826a633a6f2e419a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5c1304050c0848b3"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/079_ClassToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/079_ClassToWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="R9245ddbb45d4478b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="Rd65ab3b0903c4b74"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="Rb4433910817544d9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="Rcc5cef58a402416a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -253,7 +253,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Reb3c8fe0103747a8"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8bf50d2b354a457d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -387,6 +387,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5c1304050c0848b3"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd807dc9058a241bd"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/079_ClassToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/079_ClassToWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="Rb4433910817544d9"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="Rcc5cef58a402416a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="R0081c61286e2413f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="Rbff83aea4f434ffe"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -253,7 +253,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8bf50d2b354a457d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R37452a3d0c5f4cb8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -387,6 +387,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd807dc9058a241bd"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6fbce914c66f4517"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/079_ClassToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/079_ClassToWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="R0081c61286e2413f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="Rbff83aea4f434ffe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="R8aa9c5f2bdd74714"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="Rbd86ffb62c6c4fe0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -253,7 +253,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R37452a3d0c5f4cb8"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd4fe4ac927c6476e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -387,6 +387,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6fbce914c66f4517"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R77c88d23e42b448a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/079_ClassToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/079_ClassToWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="R8aa9c5f2bdd74714"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="Rbd86ffb62c6c4fe0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="R30d3c94bdbfa48c3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="Rb404443c860e4d7a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -253,7 +253,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd4fe4ac927c6476e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra8a3aced93f24c86"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -387,6 +387,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R77c88d23e42b448a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ree4827292859403a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/079_ClassToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/079_ClassToWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="R30d3c94bdbfa48c3"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="Rb404443c860e4d7a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="R5ba3126e4e034763"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="Re8f4714fe3f14a04"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -253,7 +253,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra8a3aced93f24c86"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb6bb1b19b99f4e0e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -387,6 +387,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ree4827292859403a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd2e9f1142b52433d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/079_ClassToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/079_ClassToWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="R5ba3126e4e034763"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="Re8f4714fe3f14a04"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="R88991a30aa244dd3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="Rfdb8e38769ea492f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -253,7 +253,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb6bb1b19b99f4e0e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd39e05a96dd74911"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -387,6 +387,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd2e9f1142b52433d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3493ab6a98fc4d38"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/079_ClassToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/079_ClassToWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="R88991a30aa244dd3"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="Rfdb8e38769ea492f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="Rde71c6270124484f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="Re1c5ae27f18f49d8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -31,17 +31,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">
@@ -253,7 +253,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd39e05a96dd74911"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc61fd12de66e44bc"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -387,6 +387,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3493ab6a98fc4d38"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R04982567af9649d0"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/079_ClassToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/079_ClassToWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="Rde71c6270124484f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="Re1c5ae27f18f49d8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="R0b2c0a1e40614d14"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="R30f715757cd44c85"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -31,17 +31,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">
@@ -253,7 +253,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc61fd12de66e44bc"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R02b2a875593d47a7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -387,6 +387,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R04982567af9649d0"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2c2b39ab2bcc40ea"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/079_ClassToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/079_ClassToWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="R0b2c0a1e40614d14"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="R30f715757cd44c85"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="Rc486c7a5febe46f0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="R96d3a7a888504ed1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -253,7 +253,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R02b2a875593d47a7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5c36807bc54d43d9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -387,6 +387,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2c2b39ab2bcc40ea"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0eb78f08e7fb4841"/>
 </x:worksheet>
 </file>